--- a/Plichtenheft/Aufgabenliste für Projekte1.xlsx
+++ b/Plichtenheft/Aufgabenliste für Projekte1.xlsx
@@ -1,28 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joana\OneDrive\Dokumente\GitHub\PSE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joana\OneDrive\Dokumente\GitHub\PSE\Plichtenheft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="E13436A57EBF1EF23878CA726A73DCB28D344F81" xr6:coauthVersionLast="23" xr6:coauthVersionMax="23" xr10:uidLastSave="{A412F747-F542-45AC-BE60-6052FF3130DD}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="E13436A57EBF1EF23878CA726A73DCB28D344F81" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{A432FC77-BCC0-4334-89C7-1BE982BC1127}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aufgabenliste" sheetId="1" r:id="rId1"/>
-    <sheet name="Fragen" sheetId="4" r:id="rId2"/>
-    <sheet name="Ideen_Probleme" sheetId="2" r:id="rId3"/>
-    <sheet name="Sprache" sheetId="3" r:id="rId4"/>
+    <sheet name="Aufgabe bis Montag" sheetId="6" r:id="rId2"/>
+    <sheet name="Fragen" sheetId="4" r:id="rId3"/>
+    <sheet name="Ideen_Probleme" sheetId="2" r:id="rId4"/>
+    <sheet name="Sprache" sheetId="3" r:id="rId5"/>
+    <sheet name="GUI" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Aufgabenliste!$B$5:$B$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Aufgabenliste!$A$1:$N$39</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="171027" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="137">
   <si>
     <t>Aufgabenliste</t>
   </si>
@@ -374,6 +376,75 @@
   </si>
   <si>
     <t>Idee für Trace (Antler funktioniert nicht mit Rückgängig machen)</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>Optionen-Menü bei den Watch-Expressions</t>
+  </si>
+  <si>
+    <t>&gt; An Markierung andocken, Bearbeiten, Löschen</t>
+  </si>
+  <si>
+    <t>? Im Dateimenü als Hilfe</t>
+  </si>
+  <si>
+    <t>x und y bei den beobachteten Variablen hinzufügen</t>
+  </si>
+  <si>
+    <t>Scrollbalken hinzufügen</t>
+  </si>
+  <si>
+    <t>Menüpunkte an beobachtete Variablen</t>
+  </si>
+  <si>
+    <t>Menü zu beobachteten Variablen (hinzufügen, entfernen)</t>
+  </si>
+  <si>
+    <t>Schritt/Weiter nach oben, Bedingte Breakpoints/Watch_E nach unten</t>
+  </si>
+  <si>
+    <t>bis 20.11. alle letzten Fragen klären</t>
+  </si>
+  <si>
+    <t>bis 20.11. Finalversion haben</t>
+  </si>
+  <si>
+    <t>Systemmodelle</t>
+  </si>
+  <si>
+    <t>Zustandsdiagramm, Sequenzdiagramm, Aktivitätsdiagramme</t>
+  </si>
+  <si>
+    <t>wie spezielle Sequenzdiagramme</t>
+  </si>
+  <si>
+    <t>Anwendungsfalldiagramme</t>
+  </si>
+  <si>
+    <t>Akteure, Beschreibung</t>
+  </si>
+  <si>
+    <t>Produktübersicht</t>
+  </si>
+  <si>
+    <t>Definition der Sprache</t>
+  </si>
+  <si>
+    <t>Antler, siehe Javadoc</t>
+  </si>
+  <si>
+    <t>Definition des Speicherformats</t>
+  </si>
+  <si>
+    <t>langfristig zu speichernde Produktdaten, Größe (Kapitel 6)</t>
+  </si>
+  <si>
+    <t>GUI Skizzen überarbeiten</t>
+  </si>
+  <si>
+    <t>mit Erklärungen in Pflichtenheft, Menüpunkte</t>
   </si>
 </sst>
 </file>
@@ -1113,7 +1184,7 @@
   <dimension ref="A1:AMK59"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -18765,7 +18836,9 @@
       <c r="H20"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
-      <c r="K20"/>
+      <c r="K20" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="L20"/>
       <c r="M20"/>
       <c r="N20"/>
@@ -19793,7 +19866,9 @@
       <c r="H21"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
-      <c r="K21"/>
+      <c r="K21" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="L21"/>
       <c r="M21"/>
       <c r="N21"/>
@@ -27329,11 +27404,88 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68FBFE17-209B-4BCD-937F-858439B95781}">
+  <dimension ref="A2:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28.88671875" customWidth="1"/>
+    <col min="3" max="3" width="65.77734375" customWidth="1"/>
+    <col min="4" max="4" width="64.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE6AD51-2E4D-4100-BE95-FF351D40D03B}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -27420,7 +27572,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
@@ -27606,7 +27758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:G11"/>
   <sheetViews>
@@ -27685,4 +27837,65 @@
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4572309B-F9F8-4D27-BA94-3FC96A69DE61}">
+  <dimension ref="B1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="46.33203125" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" customWidth="1"/>
+    <col min="8" max="9" width="11.5546875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="60.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>115</v>
+      </c>
+      <c r="J3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>116</v>
+      </c>
+      <c r="J4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>121</v>
+      </c>
+      <c r="J5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>122</v>
+      </c>
+      <c r="J6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Plichtenheft/Aufgabenliste für Projekte1.xlsx
+++ b/Plichtenheft/Aufgabenliste für Projekte1.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joana\OneDrive\Dokumente\GitHub\PSE\Plichtenheft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="E13436A57EBF1EF23878CA726A73DCB28D344F81" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{A432FC77-BCC0-4334-89C7-1BE982BC1127}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="E13436A57EBF1EF23878CA726A73DCB28D344F81" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{C6BF1128-CC7C-4AF6-8F22-A63FFD908BFC}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aufgabenliste" sheetId="1" r:id="rId1"/>
     <sheet name="Aufgabe bis Montag" sheetId="6" r:id="rId2"/>
-    <sheet name="Fragen" sheetId="4" r:id="rId3"/>
-    <sheet name="Ideen_Probleme" sheetId="2" r:id="rId4"/>
-    <sheet name="Sprache" sheetId="3" r:id="rId5"/>
-    <sheet name="GUI" sheetId="5" r:id="rId6"/>
+    <sheet name="Szenarien" sheetId="7" r:id="rId3"/>
+    <sheet name="Fragen" sheetId="4" r:id="rId4"/>
+    <sheet name="Ideen_Probleme" sheetId="2" r:id="rId5"/>
+    <sheet name="Sprache" sheetId="3" r:id="rId6"/>
+    <sheet name="GUI" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Aufgabenliste!$B$5:$B$37</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="139">
   <si>
     <t>Aufgabenliste</t>
   </si>
@@ -423,9 +424,6 @@
     <t>Anwendungsfalldiagramme</t>
   </si>
   <si>
-    <t>Akteure, Beschreibung</t>
-  </si>
-  <si>
     <t>Produktübersicht</t>
   </si>
   <si>
@@ -445,6 +443,15 @@
   </si>
   <si>
     <t>mit Erklärungen in Pflichtenheft, Menüpunkte</t>
+  </si>
+  <si>
+    <t>Akteure, Beschreibung, Szenarien</t>
+  </si>
+  <si>
+    <t>Neue Gliederung</t>
+  </si>
+  <si>
+    <t>oder Liste</t>
   </si>
 </sst>
 </file>
@@ -27405,10 +27412,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68FBFE17-209B-4BCD-937F-858439B95781}">
-  <dimension ref="A2:D7"/>
+  <dimension ref="A2:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -27433,16 +27440,25 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
       <c r="B3" t="s">
         <v>128</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>136</v>
+      </c>
+      <c r="D3" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>106</v>
+      </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -27450,10 +27466,10 @@
         <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -27461,18 +27477,26 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
       <c r="B7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" t="s">
         <v>135</v>
       </c>
-      <c r="C7" t="s">
-        <v>136</v>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -27481,6 +27505,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4393A1A1-772C-46EC-8504-B12087F4A170}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE6AD51-2E4D-4100-BE95-FF351D40D03B}">
   <dimension ref="A1:B22"/>
   <sheetViews>
@@ -27572,7 +27610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
@@ -27758,7 +27796,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:G11"/>
   <sheetViews>
@@ -27839,7 +27877,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4572309B-F9F8-4D27-BA94-3FC96A69DE61}">
   <dimension ref="B1:J6"/>
   <sheetViews>
